--- a/mcmaster_excel/Steel_Pan_Head_Screws_with_Spring_Lock_Washer.xlsx
+++ b/mcmaster_excel/Steel_Pan_Head_Screws_with_Spring_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.219"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.080"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.250"</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.015"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90400A213</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$11.59</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.250"</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.015"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90400A214</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11.59</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +610,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90400A311</t>
+          <t>90400A213</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>$11.59</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90400A215</t>
+          <t>90400A214</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,12 +754,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90400A312</t>
+          <t>90400A311</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,7 +826,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90400A216</t>
+          <t>90400A215</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,12 +898,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90400A217</t>
+          <t>90400A312</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,27 +930,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.030"</t>
+          <t>0.015"</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1053,22 +965,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90400A144</t>
+          <t>90400A216</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1090,27 +1002,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.030"</t>
+          <t>0.015"</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1130,17 +1042,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90400A314</t>
+          <t>90400A217</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18.79</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1202,12 +1114,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90400A146</t>
+          <t>90400A144</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10.43</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1274,12 +1186,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>90400A148</t>
+          <t>90400A314</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>18.79</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1341,17 +1253,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>90400A151</t>
+          <t>90400A146</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1413,17 +1325,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90400A153</t>
+          <t>90400A148</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1450,22 +1362,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.035"</t>
+          <t>0.030"</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1485,22 +1397,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90400A212</t>
+          <t>90400A151</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1522,17 +1434,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1557,22 +1469,22 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90400A192</t>
+          <t>90400A153</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1609,7 +1521,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.030"</t>
+          <t>0.035"</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1629,17 +1541,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90400A194</t>
+          <t>90400A212</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1701,17 +1613,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90400A197</t>
+          <t>90400A192</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1773,17 +1685,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90400A199</t>
+          <t>90400A194</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1810,22 +1722,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.446"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>0.030"</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1845,22 +1757,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90400A218</t>
+          <t>90400A197</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1882,22 +1794,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.446"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>0.030"</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1917,22 +1829,22 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90400A219</t>
+          <t>90400A199</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1994,12 +1906,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90400A221</t>
+          <t>90400A218</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2041,7 +1953,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.035"</t>
+          <t>0.032"</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90400A313</t>
+          <t>90400A219</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,12 +2050,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90400A222</t>
+          <t>90400A221</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2185,7 +2097,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>0.035"</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2210,12 +2122,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90400A223</t>
+          <t>90400A313</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2242,27 +2154,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.508"</t>
+          <t>0.446"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.039"</t>
+          <t>0.032"</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2282,17 +2194,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90400A224</t>
+          <t>90400A222</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2314,27 +2226,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.508"</t>
+          <t>0.446"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.039"</t>
+          <t>0.032"</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2354,17 +2266,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90400A225</t>
+          <t>90400A223</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90400A226</t>
+          <t>90400A224</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2498,12 +2410,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90400A227</t>
+          <t>90400A225</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,70 +2432,214 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.508"</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.039"</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>90400A226</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.508"</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.039"</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>90400A227</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.492"</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.508"</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>0.039"</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>90400A228</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>13.18</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
